--- a/TSSI Model.xlsx
+++ b/TSSI Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerem\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerem\OneDrive\Masaüstü\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0DA0E5-F57A-4E28-99DC-CE51069F979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF145DA-CBF0-4013-9933-0DE4065CB325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30036" yWindow="468" windowWidth="29976" windowHeight="15708" xr2:uid="{15DD2EF7-3D38-48BE-91C3-905AF47E584F}"/>
+    <workbookView xWindow="2688" yWindow="1272" windowWidth="27216" windowHeight="16008" xr2:uid="{15DD2EF7-3D38-48BE-91C3-905AF47E584F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -579,31 +579,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -615,9 +597,27 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1030,7 +1030,7 @@
   <dimension ref="A2:AB27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1041,20 +1041,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="64" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="H3" s="29" t="s">
         <v>2</v>
       </c>
@@ -1076,17 +1076,17 @@
       <c r="W3" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="53">
+      <c r="X3" s="59">
         <v>45966</v>
       </c>
-      <c r="Y3" s="53"/>
+      <c r="Y3" s="59"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
@@ -1118,34 +1118,34 @@
     </row>
     <row r="6" spans="1:28" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="H6" s="63" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="H6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="O6" s="63" t="s">
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="O6" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="V6" s="63" t="s">
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="V6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
       <c r="Y6" s="39" t="s">
         <v>33</v>
       </c>
@@ -1154,35 +1154,35 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="H7" s="56" t="s">
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="H7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="54">
+      <c r="I7" s="52"/>
+      <c r="J7" s="60">
         <v>161</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="O7" s="56" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="O7" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="57">
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="53">
         <v>28.4</v>
       </c>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
       <c r="V7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1194,36 +1194,36 @@
       <c r="AA7" s="41"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="58">
+      <c r="C8" s="49"/>
+      <c r="D8" s="57">
         <v>17.88</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="H8" s="52" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="H8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="55">
+      <c r="I8" s="49"/>
+      <c r="J8" s="61">
         <v>2004</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="O8" s="52" t="s">
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="O8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="60">
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="54">
         <f>R7*D8</f>
         <v>507.79199999999997</v>
       </c>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
       <c r="V8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1235,36 +1235,36 @@
       <c r="AA8" s="41"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="58">
+      <c r="C9" s="49"/>
+      <c r="D9" s="57">
         <f>Q17/(Y8*1000)</f>
         <v>18.760837606153498</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="H9" s="52" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="H9" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="55" t="s">
+      <c r="I9" s="49"/>
+      <c r="J9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="O9" s="52" t="s">
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="O9" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="61">
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="55">
         <v>0</v>
       </c>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
       <c r="V9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1276,36 +1276,36 @@
       <c r="AA9" s="41"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="59">
+      <c r="C10" s="49"/>
+      <c r="D10" s="58">
         <f>D9/D8-1</f>
         <v>4.9263848218875861E-2</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="H10" s="52" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="H10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="52"/>
-      <c r="J10" s="55" t="s">
+      <c r="I10" s="49"/>
+      <c r="J10" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="O10" s="52" t="s">
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="O10" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="60" t="s">
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
       <c r="V10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1316,33 +1316,33 @@
       <c r="AA10" s="41"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="H11" s="52" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="H11" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="52"/>
-      <c r="J11" s="55" t="s">
+      <c r="I11" s="49"/>
+      <c r="J11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="O11" s="52" t="s">
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="O11" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="62">
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="56">
         <v>46022</v>
       </c>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
       <c r="V11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1390,24 +1390,24 @@
       <c r="O13" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="Q13" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="51"/>
+      <c r="R13" s="64"/>
       <c r="S13" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="T13" s="51" t="s">
+      <c r="T13" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="U13" s="51"/>
+      <c r="U13" s="64"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="23">
         <v>45062</v>
       </c>
@@ -1452,17 +1452,17 @@
       <c r="S14" s="48">
         <v>0.12</v>
       </c>
-      <c r="T14" s="50" t="s">
+      <c r="T14" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="U14" s="50"/>
+      <c r="U14" s="63"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="23">
         <v>129</v>
       </c>
@@ -1497,22 +1497,22 @@
         <v>48800</v>
       </c>
       <c r="P15" s="23"/>
-      <c r="Q15" s="49">
+      <c r="Q15" s="62">
         <f>Q14*R14</f>
         <v>800000</v>
       </c>
-      <c r="R15" s="49"/>
-      <c r="T15" s="50" t="s">
+      <c r="R15" s="62"/>
+      <c r="T15" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="U15" s="50"/>
+      <c r="U15" s="63"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="23">
         <v>79</v>
       </c>
@@ -1547,22 +1547,22 @@
         <v>36300</v>
       </c>
       <c r="P16" s="23"/>
-      <c r="Q16" s="49">
+      <c r="Q16" s="62">
         <f>Q15/(1+S14)^5</f>
         <v>453941.4845748794</v>
       </c>
-      <c r="R16" s="49"/>
+      <c r="R16" s="62"/>
       <c r="T16" s="15" t="s">
         <v>94</v>
       </c>
       <c r="U16" s="15"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="34">
         <f t="shared" ref="E17:L17" si="0">E16/E14</f>
         <v>1.7531401180595624E-3</v>
@@ -1608,20 +1608,20 @@
         <v>5.5E-2</v>
       </c>
       <c r="P17" s="23"/>
-      <c r="Q17" s="49">
+      <c r="Q17" s="62">
         <f>NPV(S14,K19:O19)+Q16</f>
         <v>532807.78801475931</v>
       </c>
-      <c r="R17" s="49"/>
-      <c r="T17" s="50" t="s">
+      <c r="R17" s="62"/>
+      <c r="T17" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="U17" s="50"/>
+      <c r="U17" s="63"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -1637,11 +1637,11 @@
       <c r="Q18" s="23"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="23">
         <v>-767</v>
       </c>
@@ -1679,11 +1679,11 @@
       <c r="Q19" s="23"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="42">
         <v>0</v>
       </c>
@@ -1722,11 +1722,11 @@
       <c r="Q20" s="23"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" s="42">
         <v>0.46</v>
       </c>
@@ -1765,9 +1765,9 @@
       <c r="Q21" s="23"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -1783,11 +1783,11 @@
       <c r="Q22" s="23"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="23">
         <v>12674</v>
       </c>
@@ -1825,11 +1825,11 @@
       <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="43">
         <v>0.71</v>
       </c>
@@ -1882,11 +1882,11 @@
       <c r="Q25" s="23"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="42">
         <v>0.17</v>
       </c>
@@ -1964,31 +1964,22 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
@@ -2005,22 +1996,31 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:F4"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
